--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
@@ -528,22 +528,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.318968333333333</v>
+        <v>0.021814</v>
       </c>
       <c r="H2">
-        <v>3.956905</v>
+        <v>0.065442</v>
       </c>
       <c r="I2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="J2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>15.19086341634111</v>
+        <v>0.2512368843053333</v>
       </c>
       <c r="R2">
-        <v>136.71777074707</v>
+        <v>2.261131958748</v>
       </c>
       <c r="S2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="T2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9977960000000001</v>
+        <v>0.194567</v>
       </c>
       <c r="H3">
-        <v>2.993388</v>
+        <v>0.583701</v>
       </c>
       <c r="I3">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="J3">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>11.49184735547467</v>
+        <v>2.240873148832667</v>
       </c>
       <c r="R3">
-        <v>103.426626199272</v>
+        <v>20.167858339494</v>
       </c>
       <c r="S3">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="T3">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
     </row>
   </sheetData>
